--- a/biology/Botanique/Sansevieria_bagamoyensis/Sansevieria_bagamoyensis.xlsx
+++ b/biology/Botanique/Sansevieria_bagamoyensis/Sansevieria_bagamoyensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria bagamoyensis, également appelée Dracaena bagamoyensis[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria bagamoyensis, également appelée Dracaena bagamoyensis, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria bagamoyensis est une espèce de sansevières érectile à feuilles de taille moyenne (longueur de 30 à 40 cm ; largeur de 1,5 à 2,5 cm) et lisses, de couleur verte allant en s'éclaircissant jusqu'au jaune vers l'extérieur, et présentant des bords brunâtres à rougeâtres. Elles poussent de manière superposée en spirale, formant un stipe[2].
-Elle a été identifiée comme espèce à part entière en 1913 par le botaniste britannique Nicholas Edward Brown[3].
-L'espèce a été fréquemment et longtemps confondue avec Sansevieria arborescens, Sansevieria dumetescens et Sansevieria ascendens[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria bagamoyensis est une espèce de sansevières érectile à feuilles de taille moyenne (longueur de 30 à 40 cm ; largeur de 1,5 à 2,5 cm) et lisses, de couleur verte allant en s'éclaircissant jusqu'au jaune vers l'extérieur, et présentant des bords brunâtres à rougeâtres. Elles poussent de manière superposée en spirale, formant un stipe.
+Elle a été identifiée comme espèce à part entière en 1913 par le botaniste britannique Nicholas Edward Brown.
+L'espèce a été fréquemment et longtemps confondue avec Sansevieria arborescens, Sansevieria dumetescens et Sansevieria ascendens
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans le sud de l'Afrique orientale au sud-est du Kenya et au nord-est de la Tanzanie où elle a été initialement identifiée près de la localité de Bagamoyo qui lui donne son nom[5],[2]. Elle occupe différents milieux depuis les savanes jusqu'aux forêts ouvertes, poussant entre 0 et 400 m d'altitude, de préférence à l'ombre sous couvert.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans le sud de l'Afrique orientale au sud-est du Kenya et au nord-est de la Tanzanie où elle a été initialement identifiée près de la localité de Bagamoyo qui lui donne son nom,. Elle occupe différents milieux depuis les savanes jusqu'aux forêts ouvertes, poussant entre 0 et 400 m d'altitude, de préférence à l'ombre sous couvert.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente un synonyme[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente un synonyme :
 Dracaena bagamoyensis</t>
         </is>
       </c>
